--- a/biology/Botanique/Eutypa_lata/Eutypa_lata.xlsx
+++ b/biology/Botanique/Eutypa_lata/Eutypa_lata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eutypa lata est une espèce de champignons ascomycètes de la famille des Diatrypaceae.
 Ce champignon lignicole est l'un des agents pathogènes d'une maladie de la vigne, l'eutypiose, présente dans toutes les grandes régions viticoles du monde.
 La gamme d'hôtes d'Eutypa lata comprend plus de 80 espèces de plantes appartenant à plus de 27 familles.
-Parmi les plantes-hôtes ayant une importance économique figurent des espèces du genre Prunus, dont l'abricotier (Prunus armeniaca), et le prunier japonais (Prunus salicina), ainsi que le citronnier (Citrus limon), le pommier (Malus domestica). Toutefois l'hôte ayant de loin la plus grande importance économique est la vigne (genre Vitis Vinifera spp.)[2].
+Parmi les plantes-hôtes ayant une importance économique figurent des espèces du genre Prunus, dont l'abricotier (Prunus armeniaca), et le prunier japonais (Prunus salicina), ainsi que le citronnier (Citrus limon), le pommier (Malus domestica). Toutefois l'hôte ayant de loin la plus grande importance économique est la vigne (genre Vitis Vinifera spp.).
 </t>
         </is>
       </c>
@@ -516,8 +528,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon Catalogue of Life                                   (13 mars 2016)[1] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (13 mars 2016) :
 Cryptosphaeria crepiniana Sacc. &amp; Roum., 1883,
 Cryptosphaeria myriocarpa (Nitschke) Sacc., 1882,
 Cytosporina lata Höhn., 1927,
@@ -571,8 +588,43 @@
 Valsa milliaria (Fr.) Nitschke, 1867,
 Valsa myriocarpa Nitschke, 1867,
 Valsa rhodi Nitschke, 1867.
-Liste des variétés
-Selon NCBI  (13 mars 2016)[3] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Eutypa_lata</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eutypa_lata</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (13 mars 2016) :
 variété Eutypa lata var. aceri</t>
         </is>
       </c>
